--- a/biology/Biochimie/Biopolymère/Biopolymère.xlsx
+++ b/biology/Biochimie/Biopolymère/Biopolymère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biopolym%C3%A8re</t>
+          <t>Biopolymère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les biopolymères sont des polymères issus de la biomasse[1], c'est-à-dire produits par des êtres vivants (végétaux, algaux, animaux, fongiques, etc.).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les biopolymères sont des polymères issus de la biomasse, c'est-à-dire produits par des êtres vivants (végétaux, algaux, animaux, fongiques, etc.).
 La cellulose et l'amidon par exemple sont des polysaccharides et sont d'origine végétale.
 Plusieurs industries s'y intéressent comme solution de rechange aux polymères synthétisés chimiquement et issus de ressources fossiles. Les produits à base de biopolymères présentent l’intérêt d’être issus de ressources renouvelables et sont potentiellement biodégradables.
-Il existe de nombreux produits sur le marché destinés à l'industrie agroalimentaire, à l'horticulture, à la galénique, la cosmétique, à l'emballage, etc. Le secteur de l'électronique est un débouché très intéressant car le marché est important et à forte valeur ajoutée. L'entreprise Fujitsu a été la première à mettre sur le marché un produit électronique (un notebook)[3] à partir d'acide polylactique (PLA), un polymère d'origine bactérienne.
+Il existe de nombreux produits sur le marché destinés à l'industrie agroalimentaire, à l'horticulture, à la galénique, la cosmétique, à l'emballage, etc. Le secteur de l'électronique est un débouché très intéressant car le marché est important et à forte valeur ajoutée. L'entreprise Fujitsu a été la première à mettre sur le marché un produit électronique (un notebook) à partir d'acide polylactique (PLA), un polymère d'origine bactérienne.
 Il n'est toutefois pas question pour l'instant de substituer les biopolymères ou polymères pétrochimiques en raison de leurs caractéristiques et de leurs propriétés.
 </t>
         </is>
